--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T17:09:55-05:00</t>
+    <t>2021-11-08T08:32:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T08:32:25-06:00</t>
+    <t>2021-11-08T19:10:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="579">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.DocumentReference</t>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.DocumentReference</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T19:10:05-06:00</t>
+    <t>2022-02-27T12:38:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Integrating the Healthcare Enterprise (IHE)</t>
+    <t>IHE IT Infrastructure Technical Committee</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1173,7 +1173,7 @@
     <t>Document referenced</t>
   </si>
   <si>
-    <t>The document and format referenced. There may be multiple content element repetitions, each with a different format.</t>
+    <t>The document and format referenced.</t>
   </si>
   <si>
     <t>Bundle(Composition+*)</t>
@@ -1960,7 +1960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2058,79 +2058,87 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T12:38:24-06:00</t>
+    <t>2022-02-28T20:12:01-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="589">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T11:05:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -458,7 +458,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -471,14 +471,14 @@
     <t>DocumentReference.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -512,7 +512,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -536,7 +536,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -579,7 +579,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -665,10 +665,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
   </si>
   <si>
     <t>CDA Document Id extension and root.</t>
@@ -677,17 +677,25 @@
     <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>DocumentEntry.uniqueId</t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
   </si>
   <si>
     <t>DocumentReference.identifier</t>
@@ -710,13 +718,7 @@
     <t>DocumentEntry.entryUUID</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
     <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>TXA-16?</t>
@@ -812,7 +814,7 @@
     <t>Precise type of clinical document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.typeCode</t>
@@ -859,7 +861,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.classCode</t>
@@ -942,7 +944,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -976,7 +978,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1010,7 +1012,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1116,7 +1118,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1360,7 +1362,7 @@
     <t>Attachment.url</t>
   </si>
   <si>
-    <t>DocumentEntry.repositoryUniqueId or DocuemntEntry.URI</t>
+    <t>DocumentEntry.repositoryUniqueId+DocumentEntry.uniqueId or DocumentEntry.URI</t>
   </si>
   <si>
     <t>./reference/literal</t>
@@ -1406,7 +1408,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1518,7 +1520,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1624,7 +1626,7 @@
 </t>
   </si>
   <si>
-    <t>DocumetEntry.serviceStartTime</t>
+    <t>DocumentEntry.serviceStartTime</t>
   </si>
   <si>
     <t>./low</t>
@@ -1672,7 +1674,7 @@
     <t>XDS Facility Type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.healthcareFacilityTypeCode</t>
@@ -1705,13 +1707,17 @@
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSettingCode</t>
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient demographics from source</t>
@@ -1767,7 +1773,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1815,7 +1821,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -2185,17 +2191,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.55859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2204,30 +2210,30 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.59375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.46875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.2890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="31.91796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.0234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.8203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="78.05859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="70.00390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.70703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="157.95703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="73.5859375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="141.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4525,7 +4531,7 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>206</v>
@@ -4598,42 +4604,42 @@
         <v>97</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4656,13 +4662,13 @@
         <v>98</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4701,7 +4707,7 @@
         <v>83</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
@@ -4711,7 +4717,7 @@
         <v>124</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>84</v>
@@ -4726,39 +4732,39 @@
         <v>109</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AR20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AQ20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AR20" t="s" s="2">
-        <v>220</v>
-      </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>83</v>
@@ -4771,22 +4777,22 @@
         <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4837,7 +4843,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>84</v>
@@ -4846,7 +4852,7 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>109</v>
@@ -4855,33 +4861,33 @@
         <v>83</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>83</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4907,13 +4913,13 @@
         <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4939,11 +4945,11 @@
         <v>83</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>83</v>
@@ -4961,7 +4967,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>97</v>
@@ -4976,36 +4982,36 @@
         <v>109</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AQ22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AR22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AR22" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5031,13 +5037,13 @@
         <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5063,13 +5069,13 @@
         <v>83</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>83</v>
@@ -5087,7 +5093,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>84</v>
@@ -5108,30 +5114,30 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AR23" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5154,16 +5160,16 @@
         <v>98</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5192,10 +5198,10 @@
         <v>178</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -5213,7 +5219,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -5228,40 +5234,40 @@
         <v>109</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5280,16 +5286,16 @@
         <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5318,10 +5324,10 @@
         <v>164</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -5339,7 +5345,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>84</v>
@@ -5354,36 +5360,36 @@
         <v>109</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5406,13 +5412,13 @@
         <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5463,7 +5469,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>84</v>
@@ -5478,40 +5484,40 @@
         <v>109</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AR26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>279</v>
-      </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5533,13 +5539,13 @@
         <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5589,7 +5595,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>84</v>
@@ -5607,19 +5613,19 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>83</v>
@@ -5628,12 +5634,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5656,16 +5662,16 @@
         <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5715,7 +5721,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>84</v>
@@ -5730,36 +5736,36 @@
         <v>109</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AR28" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5782,16 +5788,16 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5841,7 +5847,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -5856,36 +5862,36 @@
         <v>109</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AR29" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5908,16 +5914,16 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5967,7 +5973,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>84</v>
@@ -5982,16 +5988,16 @@
         <v>109</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -6006,12 +6012,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6034,16 +6040,16 @@
         <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6093,7 +6099,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>84</v>
@@ -6108,36 +6114,36 @@
         <v>109</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR31" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR31" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6258,10 +6264,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6384,14 +6390,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6413,16 +6419,16 @@
         <v>118</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>121</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6471,7 +6477,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>84</v>
@@ -6512,10 +6518,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6541,13 +6547,13 @@
         <v>174</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6573,13 +6579,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6597,7 +6603,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>97</v>
@@ -6612,16 +6618,16 @@
         <v>109</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6633,15 +6639,15 @@
         <v>83</v>
       </c>
       <c r="AR35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6664,13 +6670,13 @@
         <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6721,7 +6727,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>97</v>
@@ -6736,16 +6742,16 @@
         <v>109</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6757,15 +6763,15 @@
         <v>83</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6791,16 +6797,16 @@
         <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6849,7 +6855,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
@@ -6864,7 +6870,7 @@
         <v>109</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>83</v>
@@ -6873,27 +6879,27 @@
         <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AR37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AO37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>364</v>
-      </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6916,19 +6922,19 @@
         <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6977,7 +6983,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>84</v>
@@ -6992,36 +6998,36 @@
         <v>109</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AR38" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AR38" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7044,13 +7050,13 @@
         <v>98</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7101,7 +7107,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>97</v>
@@ -7122,10 +7128,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -7142,10 +7148,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7266,10 +7272,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7392,14 +7398,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7421,16 +7427,16 @@
         <v>118</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>121</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7479,7 +7485,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>84</v>
@@ -7520,10 +7526,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7546,13 +7552,13 @@
         <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7603,7 +7609,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>97</v>
@@ -7624,30 +7630,30 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7768,10 +7774,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7894,10 +7900,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7923,14 +7929,14 @@
         <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7943,7 +7949,7 @@
         <v>83</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>83</v>
@@ -7955,13 +7961,13 @@
         <v>83</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>83</v>
@@ -7979,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>84</v>
@@ -7994,7 +8000,7 @@
         <v>109</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
@@ -8003,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -8012,18 +8018,18 @@
         <v>83</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AR46" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8049,14 +8055,14 @@
         <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -8069,7 +8075,7 @@
         <v>83</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>83</v>
@@ -8105,7 +8111,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>84</v>
@@ -8120,7 +8126,7 @@
         <v>109</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>83</v>
@@ -8129,7 +8135,7 @@
         <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8146,10 +8152,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8172,19 +8178,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8233,7 +8239,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>84</v>
@@ -8257,7 +8263,7 @@
         <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8266,7 +8272,7 @@
         <v>83</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AR48" t="s" s="2">
         <v>83</v>
@@ -8274,10 +8280,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8300,19 +8306,19 @@
         <v>98</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8325,7 +8331,7 @@
         <v>83</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>83</v>
@@ -8361,7 +8367,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>84</v>
@@ -8376,7 +8382,7 @@
         <v>109</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>83</v>
@@ -8385,7 +8391,7 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8394,7 +8400,7 @@
         <v>83</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>83</v>
@@ -8402,10 +8408,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8428,19 +8434,19 @@
         <v>98</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8489,7 +8495,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>84</v>
@@ -8504,7 +8510,7 @@
         <v>109</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>83</v>
@@ -8513,7 +8519,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8530,10 +8536,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8556,19 +8562,19 @@
         <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8617,7 +8623,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>84</v>
@@ -8632,7 +8638,7 @@
         <v>109</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
@@ -8641,7 +8647,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8658,10 +8664,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8687,14 +8693,14 @@
         <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8707,7 +8713,7 @@
         <v>83</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>83</v>
@@ -8743,7 +8749,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -8758,7 +8764,7 @@
         <v>109</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>83</v>
@@ -8767,7 +8773,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8782,12 +8788,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8810,17 +8816,17 @@
         <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8869,7 +8875,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>84</v>
@@ -8884,7 +8890,7 @@
         <v>109</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>83</v>
@@ -8893,7 +8899,7 @@
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8908,12 +8914,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8939,13 +8945,13 @@
         <v>152</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8975,7 +8981,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8993,7 +8999,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>84</v>
@@ -9008,36 +9014,36 @@
         <v>109</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR54" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9060,16 +9066,16 @@
         <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9119,7 +9125,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>84</v>
@@ -9143,7 +9149,7 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -9160,10 +9166,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9284,10 +9290,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9410,14 +9416,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9439,16 +9445,16 @@
         <v>118</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>121</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9497,7 +9503,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>84</v>
@@ -9538,10 +9544,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9564,13 +9570,13 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9621,7 +9627,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>84</v>
@@ -9636,22 +9642,22 @@
         <v>109</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>83</v>
@@ -9662,10 +9668,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9688,16 +9694,16 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9726,10 +9732,10 @@
         <v>164</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9747,7 +9753,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>84</v>
@@ -9762,36 +9768,36 @@
         <v>109</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR60" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AN60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>497</v>
-      </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9814,13 +9820,13 @@
         <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9871,7 +9877,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>84</v>
@@ -9892,13 +9898,13 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9907,15 +9913,15 @@
         <v>83</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10036,10 +10042,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10162,10 +10168,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10188,16 +10194,16 @@
         <v>98</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10247,7 +10253,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>84</v>
@@ -10256,13 +10262,13 @@
         <v>97</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
@@ -10271,7 +10277,7 @@
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10280,7 +10286,7 @@
         <v>83</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>83</v>
@@ -10288,10 +10294,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10314,23 +10320,23 @@
         <v>98</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>83</v>
@@ -10375,7 +10381,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>84</v>
@@ -10384,13 +10390,13 @@
         <v>97</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
@@ -10399,7 +10405,7 @@
         <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10408,18 +10414,18 @@
         <v>83</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10442,13 +10448,13 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10478,10 +10484,10 @@
         <v>164</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10499,7 +10505,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>84</v>
@@ -10514,36 +10520,36 @@
         <v>109</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR66" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN66" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>533</v>
-      </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10566,19 +10572,19 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10606,10 +10612,10 @@
         <v>164</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10627,7 +10633,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>84</v>
@@ -10642,20 +10648,20 @@
         <v>109</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN67" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AO67" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
       </c>
@@ -10663,15 +10669,15 @@
         <v>83</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10694,13 +10700,13 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>276</v>
+        <v>547</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10751,7 +10757,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>84</v>
@@ -10772,13 +10778,13 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>83</v>
@@ -10787,15 +10793,15 @@
         <v>83</v>
       </c>
       <c r="AR68" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10916,10 +10922,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11042,10 +11048,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11071,13 +11077,13 @@
         <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11127,7 +11133,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>84</v>
@@ -11136,13 +11142,13 @@
         <v>97</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>83</v>
@@ -11168,10 +11174,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11197,13 +11203,13 @@
         <v>139</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11232,10 +11238,10 @@
         <v>156</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -11253,7 +11259,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>84</v>
@@ -11294,10 +11300,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11320,16 +11326,16 @@
         <v>98</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11379,7 +11385,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>84</v>
@@ -11394,7 +11400,7 @@
         <v>109</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>83</v>
@@ -11403,7 +11409,7 @@
         <v>83</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11420,10 +11426,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11449,13 +11455,13 @@
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11505,7 +11511,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>84</v>
@@ -11546,10 +11552,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11572,16 +11578,16 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11631,7 +11637,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>84</v>
@@ -11646,19 +11652,19 @@
         <v>109</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>83</v>
@@ -11667,17 +11673,17 @@
         <v>83</v>
       </c>
       <c r="AR75" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AR75">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.DocumentReference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="589">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T14:38:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -458,7 +458,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -471,14 +471,14 @@
     <t>DocumentReference.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -512,7 +512,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -536,7 +536,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -579,7 +579,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -665,10 +665,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
   </si>
   <si>
     <t>CDA Document Id extension and root.</t>
@@ -677,17 +677,25 @@
     <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>DocumentEntry.uniqueId</t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
   </si>
   <si>
     <t>DocumentReference.identifier</t>
@@ -710,13 +718,7 @@
     <t>DocumentEntry.entryUUID</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
     <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>TXA-16?</t>
@@ -812,7 +814,7 @@
     <t>Precise type of clinical document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.typeCode</t>
@@ -859,7 +861,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.classCode</t>
@@ -942,7 +944,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -976,7 +978,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1010,7 +1012,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1116,7 +1118,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1360,7 +1362,7 @@
     <t>Attachment.url</t>
   </si>
   <si>
-    <t>DocumentEntry.repositoryUniqueId or DocuemntEntry.URI</t>
+    <t>DocumentEntry.repositoryUniqueId+DocumentEntry.uniqueId or DocumentEntry.URI</t>
   </si>
   <si>
     <t>./reference/literal</t>
@@ -1406,7 +1408,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1518,7 +1520,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1624,7 +1626,7 @@
 </t>
   </si>
   <si>
-    <t>DocumetEntry.serviceStartTime</t>
+    <t>DocumentEntry.serviceStartTime</t>
   </si>
   <si>
     <t>./low</t>
@@ -1672,7 +1674,7 @@
     <t>XDS Facility Type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.healthcareFacilityTypeCode</t>
@@ -1705,13 +1707,17 @@
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSettingCode</t>
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient demographics from source</t>
@@ -1767,7 +1773,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1815,7 +1821,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -2185,17 +2191,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.55859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2204,30 +2210,30 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.59375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.46875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.2890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="31.91796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.0234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.8203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="78.05859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="70.00390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.70703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="157.95703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="73.5859375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="141.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4525,7 +4531,7 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>206</v>
@@ -4598,42 +4604,42 @@
         <v>97</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4656,13 +4662,13 @@
         <v>98</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4701,7 +4707,7 @@
         <v>83</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
@@ -4711,7 +4717,7 @@
         <v>124</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>84</v>
@@ -4726,39 +4732,39 @@
         <v>109</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AR20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AQ20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AR20" t="s" s="2">
-        <v>220</v>
-      </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>83</v>
@@ -4771,22 +4777,22 @@
         <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4837,7 +4843,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>84</v>
@@ -4846,7 +4852,7 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>109</v>
@@ -4855,33 +4861,33 @@
         <v>83</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>83</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4907,13 +4913,13 @@
         <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4939,11 +4945,11 @@
         <v>83</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>83</v>
@@ -4961,7 +4967,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>97</v>
@@ -4976,36 +4982,36 @@
         <v>109</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AQ22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AR22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AR22" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5031,13 +5037,13 @@
         <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5063,13 +5069,13 @@
         <v>83</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>83</v>
@@ -5087,7 +5093,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>84</v>
@@ -5108,30 +5114,30 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AR23" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5154,16 +5160,16 @@
         <v>98</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5192,10 +5198,10 @@
         <v>178</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -5213,7 +5219,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -5228,40 +5234,40 @@
         <v>109</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5280,16 +5286,16 @@
         <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5318,10 +5324,10 @@
         <v>164</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -5339,7 +5345,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>84</v>
@@ -5354,36 +5360,36 @@
         <v>109</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5406,13 +5412,13 @@
         <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5463,7 +5469,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>84</v>
@@ -5478,40 +5484,40 @@
         <v>109</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AR26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>279</v>
-      </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5533,13 +5539,13 @@
         <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5589,7 +5595,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>84</v>
@@ -5607,19 +5613,19 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>83</v>
@@ -5628,12 +5634,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5656,16 +5662,16 @@
         <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5715,7 +5721,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>84</v>
@@ -5730,36 +5736,36 @@
         <v>109</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AR28" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5782,16 +5788,16 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5841,7 +5847,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -5856,36 +5862,36 @@
         <v>109</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AR29" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5908,16 +5914,16 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5967,7 +5973,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>84</v>
@@ -5982,16 +5988,16 @@
         <v>109</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -6006,12 +6012,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6034,16 +6040,16 @@
         <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6093,7 +6099,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>84</v>
@@ -6108,36 +6114,36 @@
         <v>109</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR31" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR31" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6258,10 +6264,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6384,14 +6390,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6413,16 +6419,16 @@
         <v>118</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>121</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6471,7 +6477,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>84</v>
@@ -6512,10 +6518,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6541,13 +6547,13 @@
         <v>174</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6573,13 +6579,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6597,7 +6603,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>97</v>
@@ -6612,16 +6618,16 @@
         <v>109</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6633,15 +6639,15 @@
         <v>83</v>
       </c>
       <c r="AR35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6664,13 +6670,13 @@
         <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6721,7 +6727,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>97</v>
@@ -6736,16 +6742,16 @@
         <v>109</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6757,15 +6763,15 @@
         <v>83</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6791,16 +6797,16 @@
         <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6849,7 +6855,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
@@ -6864,7 +6870,7 @@
         <v>109</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>83</v>
@@ -6873,27 +6879,27 @@
         <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AR37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AO37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>364</v>
-      </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6916,19 +6922,19 @@
         <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6977,7 +6983,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>84</v>
@@ -6992,36 +6998,36 @@
         <v>109</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AR38" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AR38" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7044,13 +7050,13 @@
         <v>98</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7101,7 +7107,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>97</v>
@@ -7122,10 +7128,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -7142,10 +7148,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7266,10 +7272,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7392,14 +7398,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7421,16 +7427,16 @@
         <v>118</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>121</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7479,7 +7485,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>84</v>
@@ -7520,10 +7526,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7546,13 +7552,13 @@
         <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7603,7 +7609,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>97</v>
@@ -7624,30 +7630,30 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7768,10 +7774,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7894,10 +7900,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7923,14 +7929,14 @@
         <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7943,7 +7949,7 @@
         <v>83</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>83</v>
@@ -7955,13 +7961,13 @@
         <v>83</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>83</v>
@@ -7979,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>84</v>
@@ -7994,7 +8000,7 @@
         <v>109</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
@@ -8003,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -8012,18 +8018,18 @@
         <v>83</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AR46" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8049,14 +8055,14 @@
         <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -8069,7 +8075,7 @@
         <v>83</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>83</v>
@@ -8105,7 +8111,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>84</v>
@@ -8120,7 +8126,7 @@
         <v>109</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>83</v>
@@ -8129,7 +8135,7 @@
         <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8146,10 +8152,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8172,19 +8178,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8233,7 +8239,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>84</v>
@@ -8257,7 +8263,7 @@
         <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8266,7 +8272,7 @@
         <v>83</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AR48" t="s" s="2">
         <v>83</v>
@@ -8274,10 +8280,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8300,19 +8306,19 @@
         <v>98</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8325,7 +8331,7 @@
         <v>83</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>83</v>
@@ -8361,7 +8367,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>84</v>
@@ -8376,7 +8382,7 @@
         <v>109</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>83</v>
@@ -8385,7 +8391,7 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8394,7 +8400,7 @@
         <v>83</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>83</v>
@@ -8402,10 +8408,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8428,19 +8434,19 @@
         <v>98</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8489,7 +8495,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>84</v>
@@ -8504,7 +8510,7 @@
         <v>109</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>83</v>
@@ -8513,7 +8519,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8530,10 +8536,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8556,19 +8562,19 @@
         <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8617,7 +8623,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>84</v>
@@ -8632,7 +8638,7 @@
         <v>109</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
@@ -8641,7 +8647,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8658,10 +8664,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8687,14 +8693,14 @@
         <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8707,7 +8713,7 @@
         <v>83</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>83</v>
@@ -8743,7 +8749,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -8758,7 +8764,7 @@
         <v>109</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>83</v>
@@ -8767,7 +8773,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8782,12 +8788,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8810,17 +8816,17 @@
         <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8869,7 +8875,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>84</v>
@@ -8884,7 +8890,7 @@
         <v>109</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>83</v>
@@ -8893,7 +8899,7 @@
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8908,12 +8914,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8939,13 +8945,13 @@
         <v>152</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8975,7 +8981,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8993,7 +8999,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>84</v>
@@ -9008,36 +9014,36 @@
         <v>109</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR54" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9060,16 +9066,16 @@
         <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9119,7 +9125,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>84</v>
@@ -9143,7 +9149,7 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -9160,10 +9166,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9284,10 +9290,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9410,14 +9416,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9439,16 +9445,16 @@
         <v>118</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>121</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9497,7 +9503,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>84</v>
@@ -9538,10 +9544,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9564,13 +9570,13 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9621,7 +9627,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>84</v>
@@ -9636,22 +9642,22 @@
         <v>109</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>83</v>
@@ -9662,10 +9668,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9688,16 +9694,16 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9726,10 +9732,10 @@
         <v>164</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9747,7 +9753,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>84</v>
@@ -9762,36 +9768,36 @@
         <v>109</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR60" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AN60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>497</v>
-      </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9814,13 +9820,13 @@
         <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9871,7 +9877,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>84</v>
@@ -9892,13 +9898,13 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9907,15 +9913,15 @@
         <v>83</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10036,10 +10042,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10162,10 +10168,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10188,16 +10194,16 @@
         <v>98</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10247,7 +10253,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>84</v>
@@ -10256,13 +10262,13 @@
         <v>97</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
@@ -10271,7 +10277,7 @@
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10280,7 +10286,7 @@
         <v>83</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>83</v>
@@ -10288,10 +10294,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10314,23 +10320,23 @@
         <v>98</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>83</v>
@@ -10375,7 +10381,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>84</v>
@@ -10384,13 +10390,13 @@
         <v>97</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
@@ -10399,7 +10405,7 @@
         <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10408,18 +10414,18 @@
         <v>83</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10442,13 +10448,13 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10478,10 +10484,10 @@
         <v>164</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10499,7 +10505,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>84</v>
@@ -10514,36 +10520,36 @@
         <v>109</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR66" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN66" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>533</v>
-      </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10566,19 +10572,19 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10606,10 +10612,10 @@
         <v>164</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10627,7 +10633,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>84</v>
@@ -10642,20 +10648,20 @@
         <v>109</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN67" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AO67" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
       </c>
@@ -10663,15 +10669,15 @@
         <v>83</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10694,13 +10700,13 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>276</v>
+        <v>547</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10751,7 +10757,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>84</v>
@@ -10772,13 +10778,13 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>83</v>
@@ -10787,15 +10793,15 @@
         <v>83</v>
       </c>
       <c r="AR68" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10916,10 +10922,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11042,10 +11048,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11071,13 +11077,13 @@
         <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11127,7 +11133,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>84</v>
@@ -11136,13 +11142,13 @@
         <v>97</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>83</v>
@@ -11168,10 +11174,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11197,13 +11203,13 @@
         <v>139</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11232,10 +11238,10 @@
         <v>156</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -11253,7 +11259,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>84</v>
@@ -11294,10 +11300,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11320,16 +11326,16 @@
         <v>98</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11379,7 +11385,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>84</v>
@@ -11394,7 +11400,7 @@
         <v>109</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>83</v>
@@ -11403,7 +11409,7 @@
         <v>83</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11420,10 +11426,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11449,13 +11455,13 @@
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11505,7 +11511,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>84</v>
@@ -11546,10 +11552,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11572,16 +11578,16 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11631,7 +11637,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>84</v>
@@ -11646,19 +11652,19 @@
         <v>109</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>83</v>
@@ -11667,17 +11673,17 @@
         <v>83</v>
       </c>
       <c r="AR75" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AR75">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
